--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -4,29 +4,53 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventario" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Precios" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="precios1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="precios2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ventas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -40,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,21 +77,52 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -140,41 +195,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -182,381 +237,340 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Unidad</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="2">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Crema</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="2">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Splash</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>unidades</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Esencia</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>350</v>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="2">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>gramos</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bolsa de Regalo</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Precio Compra</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Precio Venta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Utilidad</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="2">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Crema</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="2">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Splash</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B4" s="4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>8000</v>
       </c>
     </row>
+    <row r="5" ht="15" customHeight="1" s="2">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>650</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -566,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,55 +588,108 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>650</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32500</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Esencia</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>300</v>
+      <c r="A3" s="6" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>650</v>
-      </c>
-      <c r="D3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Bolsa de Regalo</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>2500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>

--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventario" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Precios" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ventas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ventas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -18,9 +18,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -96,12 +95,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -113,7 +115,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -383,80 +386,95 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Unidad</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Bolsa de Regalo</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="B2" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Crema</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Splash</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="B4" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Loción</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>450</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>gramos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
         </is>
       </c>
     </row>
@@ -473,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -481,90 +499,106 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Precio Compra</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Precio Venta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Utilidad</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Bolsa de Regalo</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>1300</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Crema</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>8000</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>17000</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Splash</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>9000</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>17000</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Loción</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>650</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>350</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,107 +623,419 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Unidad</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="8" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Loción</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>gramos</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" s="5" t="n">
         <v>650</v>
       </c>
-      <c r="F2" t="n">
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" s="5" t="n">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Splash</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="C4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>17000</v>
       </c>
-      <c r="F3" t="n">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Crema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Bolsa de Regalo</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="C8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="F4" t="n">
-        <v>7500</v>
+      <c r="F8" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>39000</v>
       </c>
     </row>
   </sheetData>

--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,102 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -470,9 +470,24 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>unidades</t>
         </is>
@@ -491,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -599,6 +614,22 @@
       </c>
       <c r="D6" s="5" t="n">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37000</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,6 +1165,174 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,246 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bolsa de Regalo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>550</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gramos</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>550</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Crema</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F22" t="n">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chocolatina</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tienda.xlsx
+++ b/Tienda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -538,9 +538,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>unidades</t>
         </is>
@@ -557,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,13 +641,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C4" t="n">
         <v>550</v>
       </c>
       <c r="D4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -681,6 +696,22 @@
       </c>
       <c r="D7" t="n">
         <v>17000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37000</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,6 +1341,54 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
